--- a/sample_narratives.xlsx
+++ b/sample_narratives.xlsx
@@ -11,51 +11,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Current Grade</t>
-  </si>
-  <si>
-    <t>Does Homework?</t>
-  </si>
-  <si>
-    <t>Arrives on time?</t>
-  </si>
-  <si>
-    <t>Frequently Absent?</t>
-  </si>
-  <si>
-    <t>John</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Current Average</t>
+  </si>
+  <si>
+    <t>Participates?</t>
+  </si>
+  <si>
+    <t>Strong math ability?</t>
+  </si>
+  <si>
+    <t>Does homework?</t>
+  </si>
+  <si>
+    <t>On time?</t>
+  </si>
+  <si>
+    <t>Should attend tutoring?</t>
+  </si>
+  <si>
+    <t>Additional Comments?</t>
+  </si>
+  <si>
+    <t>Rob Ford</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Rob</t>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>He's very strong.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -86,11 +98,8 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -106,59 +115,89 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="5" customWidth="1" max="5" width="20.57"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c t="s" r="E1">
         <v>4</v>
+      </c>
+      <c t="s" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" r="I1">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>91</v>
-      </c>
-      <c t="s" r="C2">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c t="s" r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
       </c>
       <c t="s" r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c t="s" r="E2">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c t="s" r="F2">
+        <v>12</v>
+      </c>
+      <c t="s" r="G2">
+        <v>11</v>
+      </c>
+      <c t="s" r="H2">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3">
+        <v>13</v>
+      </c>
+      <c t="s" r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>72</v>
       </c>
-      <c t="s" r="C3">
-        <v>7</v>
-      </c>
       <c t="s" r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c t="s" r="E3">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c t="s" r="F3">
+        <v>11</v>
+      </c>
+      <c t="s" r="G3">
+        <v>12</v>
+      </c>
+      <c t="s" r="H3">
+        <v>11</v>
+      </c>
+      <c t="s" r="I3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sample_narratives.xlsx
+++ b/sample_narratives.xlsx
@@ -61,7 +61,7 @@
     <t>Additional Comments?</t>
   </si>
   <si>
-    <t>Rob Ford</t>
+    <t>Ford, Rob</t>
   </si>
   <si>
     <t>male</t>
@@ -82,7 +82,7 @@
     <t>Good job</t>
   </si>
   <si>
-    <t>Frodo Baggins</t>
+    <t>Baggins, Frodo</t>
   </si>
   <si>
     <t>female</t>
@@ -110,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -120,6 +120,16 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,15 +184,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
